--- a/NEL_sitrep_hospitalisation.xlsx
+++ b/NEL_sitrep_hospitalisation.xlsx
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q14:R16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D52" si="2">B3-C3</f>
+        <f t="shared" ref="D3:D56" si="2">B3-C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G52" si="3">E3-F3</f>
+        <f t="shared" ref="G3:G56" si="3">E3-F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J52" si="4">H3-I3</f>
+        <f t="shared" ref="J3:J56" si="4">H3-I3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -2833,17 +2833,193 @@
         <v>308</v>
       </c>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>43947</v>
+      </c>
+      <c r="B53" s="2">
+        <v>128</v>
+      </c>
+      <c r="C53" s="2">
+        <v>47</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="E53" s="2">
+        <v>315</v>
+      </c>
+      <c r="F53" s="2">
+        <v>122</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="H53" s="2">
+        <v>49</v>
+      </c>
+      <c r="I53" s="2">
+        <v>12</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="8">B53+E53+H53</f>
+        <v>492</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="9">C53+F53+I53</f>
+        <v>181</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M56" si="10">K53-L53</f>
+        <v>311</v>
+      </c>
+    </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B54" s="2">
+        <v>172</v>
+      </c>
+      <c r="C54" s="2">
+        <v>50</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="E54" s="2">
+        <v>312</v>
+      </c>
+      <c r="F54" s="2">
+        <v>123</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="H54" s="2">
+        <v>48</v>
+      </c>
+      <c r="I54" s="1">
+        <v>12</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>532</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="10"/>
+        <v>347</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B55" s="2">
+        <v>89</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E55" s="2">
+        <v>291</v>
+      </c>
+      <c r="F55" s="2">
+        <v>113</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="H55" s="2">
+        <v>44</v>
+      </c>
+      <c r="I55" s="1">
+        <v>12</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>424</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>168</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="10"/>
+        <v>256</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B56" s="2">
+        <v>133</v>
+      </c>
+      <c r="C56" s="2">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="E56" s="2">
+        <v>277</v>
+      </c>
+      <c r="F56" s="2">
+        <v>114</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="H56" s="2">
+        <v>43</v>
+      </c>
+      <c r="I56" s="1">
+        <v>12</v>
+      </c>
+      <c r="J56" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>453</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>165</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="10"/>
+        <v>288</v>
+      </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>

--- a/NEL_sitrep_hospitalisation.xlsx
+++ b/NEL_sitrep_hospitalisation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.elc.nhs.uk\NetworkDrive\TowerHamletsCCG\NHSTHCCG\Financial strategy\Analysis\Covid-19\Beds and demand modelling\Peak demand estimate\SEIR model python code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheethamn\Desktop\SEIR model python code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D56" si="2">B3-C3</f>
+        <f t="shared" ref="D3:D76" si="2">B3-C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G56" si="3">E3-F3</f>
+        <f t="shared" ref="G3:G76" si="3">E3-F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J56" si="4">H3-I3</f>
+        <f t="shared" ref="J3:J76" si="4">H3-I3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -2868,15 +2868,15 @@
         <v>37</v>
       </c>
       <c r="K53">
-        <f t="shared" ref="K53:K56" si="8">B53+E53+H53</f>
+        <f t="shared" ref="K53:K76" si="8">B53+E53+H53</f>
         <v>492</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L56" si="9">C53+F53+I53</f>
+        <f t="shared" ref="L53:L76" si="9">C53+F53+I53</f>
         <v>181</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M56" si="10">K53-L53</f>
+        <f t="shared" ref="M53:M76" si="10">K53-L53</f>
         <v>311</v>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       <c r="H54" s="2">
         <v>48</v>
       </c>
-      <c r="I54" s="1">
-        <v>12</v>
+      <c r="I54" s="2">
+        <v>0</v>
       </c>
       <c r="J54" s="2">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <f t="shared" si="8"/>
@@ -2920,11 +2920,11 @@
       </c>
       <c r="L54">
         <f t="shared" si="9"/>
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="M54">
         <f t="shared" si="10"/>
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2954,12 +2954,12 @@
       <c r="H55" s="2">
         <v>44</v>
       </c>
-      <c r="I55" s="1">
-        <v>12</v>
+      <c r="I55" s="2">
+        <v>0</v>
       </c>
       <c r="J55" s="2">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <f t="shared" si="8"/>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M55">
         <f t="shared" si="10"/>
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3001,12 +3001,12 @@
       <c r="H56" s="2">
         <v>43</v>
       </c>
-      <c r="I56" s="1">
-        <v>12</v>
+      <c r="I56" s="2">
+        <v>0</v>
       </c>
       <c r="J56" s="2">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <f t="shared" si="8"/>
@@ -3014,16 +3014,952 @@
       </c>
       <c r="L56">
         <f t="shared" si="9"/>
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M56">
         <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B57" s="2">
+        <v>144</v>
+      </c>
+      <c r="C57" s="2">
+        <v>39</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="E57" s="2">
+        <v>259</v>
+      </c>
+      <c r="F57" s="2">
+        <v>110</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="H57" s="2">
+        <v>36</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>439</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B58" s="2">
+        <v>138</v>
+      </c>
+      <c r="C58" s="2">
+        <v>40</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E58" s="2">
+        <v>242</v>
+      </c>
+      <c r="F58" s="2">
+        <v>105</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="H58" s="2">
+        <v>32</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>412</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>147</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="10"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B59" s="2">
+        <v>134</v>
+      </c>
+      <c r="C59" s="2">
+        <v>37</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="E59" s="2">
+        <v>237</v>
+      </c>
+      <c r="F59" s="2">
+        <v>89</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="H59" s="2">
+        <v>30</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>401</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="10"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B60" s="2">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2">
+        <v>37</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E60" s="2">
+        <v>219</v>
+      </c>
+      <c r="F60" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="H60" s="2">
+        <v>31</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>374</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B61" s="2">
+        <v>123</v>
+      </c>
+      <c r="C61" s="2">
+        <v>35</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="E61" s="2">
+        <v>209</v>
+      </c>
+      <c r="F61" s="2">
+        <v>73</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="H61" s="2">
+        <v>32</v>
+      </c>
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+      <c r="J61" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="10"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B62" s="2">
+        <v>120</v>
+      </c>
+      <c r="C62" s="2">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E62" s="2">
+        <v>203</v>
+      </c>
+      <c r="F62" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="H62" s="2">
+        <v>25</v>
+      </c>
+      <c r="I62" s="2">
+        <v>12</v>
+      </c>
+      <c r="J62" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>348</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="10"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B63" s="2">
+        <v>104</v>
+      </c>
+      <c r="C63" s="2">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="E63" s="2">
+        <v>192</v>
+      </c>
+      <c r="F63" s="2">
+        <v>71</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="H63" s="2">
+        <v>23</v>
+      </c>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+      <c r="J63" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>319</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="10"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B64" s="2">
+        <v>92</v>
+      </c>
+      <c r="C64" s="2">
+        <v>29</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="E64" s="2">
+        <v>176</v>
+      </c>
+      <c r="F64" s="2">
+        <v>70</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="H64" s="2">
+        <v>24</v>
+      </c>
+      <c r="I64" s="2">
+        <v>11</v>
+      </c>
+      <c r="J64" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>292</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="10"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B65" s="2">
+        <v>82</v>
+      </c>
+      <c r="C65" s="2">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="E65" s="2">
+        <v>176</v>
+      </c>
+      <c r="F65" s="2">
+        <v>59</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="H65" s="2">
+        <v>24</v>
+      </c>
+      <c r="I65" s="2">
+        <v>12</v>
+      </c>
+      <c r="J65" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="8"/>
+        <v>282</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B66" s="2">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2">
+        <v>28</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E66" s="2">
+        <v>173</v>
+      </c>
+      <c r="F66" s="2">
+        <v>58</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="H66" s="2">
+        <v>25</v>
+      </c>
+      <c r="I66" s="2">
+        <v>11</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B67" s="2">
+        <v>72</v>
+      </c>
+      <c r="C67" s="2">
+        <v>24</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="E67" s="2">
+        <v>175</v>
+      </c>
+      <c r="F67" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="H67" s="2">
+        <v>23</v>
+      </c>
+      <c r="I67" s="2">
+        <v>11</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B68" s="2">
+        <v>71</v>
+      </c>
+      <c r="C68" s="2">
+        <v>26</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E68" s="2">
+        <v>168</v>
+      </c>
+      <c r="F68" s="2">
+        <v>46</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="H68" s="2">
+        <v>21</v>
+      </c>
+      <c r="I68" s="2">
+        <v>10</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B69" s="2">
+        <v>74</v>
+      </c>
+      <c r="C69" s="2">
+        <v>27</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="E69" s="2">
+        <v>171</v>
+      </c>
+      <c r="F69" s="2">
+        <v>36</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="H69" s="2">
+        <v>21</v>
+      </c>
+      <c r="I69" s="2">
+        <v>8</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>266</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="10"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B70" s="2">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2">
+        <v>26</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E70" s="2">
+        <v>162</v>
+      </c>
+      <c r="F70" s="2">
+        <v>32</v>
+      </c>
+      <c r="G70" s="2">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="H70" s="2">
+        <v>21</v>
+      </c>
+      <c r="I70" s="2">
+        <v>8</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B71" s="2">
+        <v>69</v>
+      </c>
+      <c r="C71" s="2">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E71" s="2">
+        <v>152</v>
+      </c>
+      <c r="F71" s="2">
+        <v>33</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="H71" s="2">
+        <v>19</v>
+      </c>
+      <c r="I71" s="2">
+        <v>8</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B72" s="2">
+        <v>67</v>
+      </c>
+      <c r="C72" s="2">
+        <v>24</v>
+      </c>
+      <c r="D72" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="E72" s="2">
+        <v>161</v>
+      </c>
+      <c r="F72" s="2">
+        <v>40</v>
+      </c>
+      <c r="G72" s="2">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="H72" s="2">
+        <v>21</v>
+      </c>
+      <c r="I72" s="2">
+        <v>8</v>
+      </c>
+      <c r="J72" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="2">
+        <v>25</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="E73" s="2">
+        <v>160</v>
+      </c>
+      <c r="F73" s="2">
+        <v>38</v>
+      </c>
+      <c r="G73" s="2">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="H73" s="2">
+        <v>20</v>
+      </c>
+      <c r="I73" s="2">
+        <v>8</v>
+      </c>
+      <c r="J73" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="10"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>43968</v>
+      </c>
+      <c r="B74" s="2">
+        <v>67</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="E74" s="2">
+        <v>149</v>
+      </c>
+      <c r="F74" s="2">
+        <v>42</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="H74" s="2">
+        <v>21</v>
+      </c>
+      <c r="I74" s="2">
+        <v>8</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B75" s="2">
+        <v>63</v>
+      </c>
+      <c r="C75" s="2">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="E75" s="2">
+        <v>147</v>
+      </c>
+      <c r="F75" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" s="2">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="H75" s="2">
+        <v>20</v>
+      </c>
+      <c r="I75" s="2">
+        <v>8</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B76" s="2">
+        <v>59</v>
+      </c>
+      <c r="C76" s="2">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="E76" s="2">
+        <v>141</v>
+      </c>
+      <c r="F76" s="2">
+        <v>35</v>
+      </c>
+      <c r="G76" s="2">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="H76" s="2">
+        <v>17</v>
+      </c>
+      <c r="I76" s="2">
+        <v>4</v>
+      </c>
+      <c r="J76" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NEL_sitrep_hospitalisation.xlsx
+++ b/NEL_sitrep_hospitalisation.xlsx
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D76" si="2">B3-C3</f>
+        <f t="shared" ref="D3:D98" si="2">B3-C3</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G76" si="3">E3-F3</f>
+        <f t="shared" ref="G3:G98" si="3">E3-F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J76" si="4">H3-I3</f>
+        <f t="shared" ref="J3:J91" si="4">H3-I3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -2868,15 +2868,15 @@
         <v>37</v>
       </c>
       <c r="K53">
-        <f t="shared" ref="K53:K76" si="8">B53+E53+H53</f>
+        <f t="shared" ref="K53:K98" si="8">B53+E53+H53</f>
         <v>492</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L76" si="9">C53+F53+I53</f>
+        <f t="shared" ref="L53:L98" si="9">C53+F53+I53</f>
         <v>181</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M76" si="10">K53-L53</f>
+        <f t="shared" ref="M53:M98" si="10">K53-L53</f>
         <v>311</v>
       </c>
     </row>
@@ -3959,6 +3959,1039 @@
       <c r="M76">
         <f t="shared" si="10"/>
         <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B77" s="2">
+        <v>50</v>
+      </c>
+      <c r="C77" s="2">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="E77" s="2">
+        <v>133</v>
+      </c>
+      <c r="F77" s="2">
+        <v>33</v>
+      </c>
+      <c r="G77" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H77" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" s="2">
+        <v>9</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="10"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B78" s="2">
+        <v>49</v>
+      </c>
+      <c r="C78" s="2">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E78" s="2">
+        <v>129</v>
+      </c>
+      <c r="F78" s="2">
+        <v>30</v>
+      </c>
+      <c r="G78" s="2">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="H78" s="2">
+        <v>18</v>
+      </c>
+      <c r="I78" s="2">
+        <v>9</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45</v>
+      </c>
+      <c r="C79" s="2">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E79" s="2">
+        <v>128</v>
+      </c>
+      <c r="F79" s="2">
+        <v>28</v>
+      </c>
+      <c r="G79" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H79" s="2">
+        <v>15</v>
+      </c>
+      <c r="I79" s="2">
+        <v>8</v>
+      </c>
+      <c r="J79" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>43974</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45</v>
+      </c>
+      <c r="C80" s="2">
+        <v>22</v>
+      </c>
+      <c r="D80" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="E80" s="2">
+        <v>127</v>
+      </c>
+      <c r="F80" s="2">
+        <v>29</v>
+      </c>
+      <c r="G80" s="2">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="H80" s="2">
+        <v>15</v>
+      </c>
+      <c r="I80" s="2">
+        <v>7</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>43975</v>
+      </c>
+      <c r="B81" s="2">
+        <v>46</v>
+      </c>
+      <c r="C81" s="2">
+        <v>21</v>
+      </c>
+      <c r="D81" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E81" s="2">
+        <v>123</v>
+      </c>
+      <c r="F81" s="2">
+        <v>23</v>
+      </c>
+      <c r="G81" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H81" s="2">
+        <v>12</v>
+      </c>
+      <c r="I81" s="2">
+        <v>7</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>181</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="10"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>43976</v>
+      </c>
+      <c r="B82" s="2">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2">
+        <v>20</v>
+      </c>
+      <c r="D82" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E82" s="2">
+        <v>117</v>
+      </c>
+      <c r="F82" s="2">
+        <v>27</v>
+      </c>
+      <c r="G82" s="2">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="H82" s="2">
+        <v>14</v>
+      </c>
+      <c r="I82" s="2">
+        <v>7</v>
+      </c>
+      <c r="J82" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>179</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B83" s="2">
+        <v>51</v>
+      </c>
+      <c r="C83" s="2">
+        <v>20</v>
+      </c>
+      <c r="D83" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="E83" s="2">
+        <v>120</v>
+      </c>
+      <c r="F83" s="2">
+        <v>24</v>
+      </c>
+      <c r="G83" s="2">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="H83" s="2">
+        <v>15</v>
+      </c>
+      <c r="I83" s="2">
+        <v>7</v>
+      </c>
+      <c r="J83" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B84" s="2">
+        <v>51</v>
+      </c>
+      <c r="C84" s="2">
+        <v>19</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E84" s="2">
+        <v>120</v>
+      </c>
+      <c r="F84" s="2">
+        <v>23</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="H84" s="2">
+        <v>13</v>
+      </c>
+      <c r="I84" s="2">
+        <v>8</v>
+      </c>
+      <c r="J84" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B85" s="2">
+        <v>48</v>
+      </c>
+      <c r="C85" s="2">
+        <v>16</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E85" s="2">
+        <v>111</v>
+      </c>
+      <c r="F85" s="2">
+        <v>26</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="H85" s="2">
+        <v>13</v>
+      </c>
+      <c r="I85" s="2">
+        <v>8</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="10"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>43980</v>
+      </c>
+      <c r="B86" s="2">
+        <v>40</v>
+      </c>
+      <c r="C86" s="2">
+        <v>16</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E86" s="2">
+        <v>107</v>
+      </c>
+      <c r="F86" s="2">
+        <v>22</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="H86" s="2">
+        <v>7</v>
+      </c>
+      <c r="I86" s="2">
+        <v>7</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="10"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>43981</v>
+      </c>
+      <c r="B87" s="2">
+        <v>39</v>
+      </c>
+      <c r="C87" s="2">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E87" s="2">
+        <v>101</v>
+      </c>
+      <c r="F87" s="2">
+        <v>26</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="H87" s="2">
+        <v>8</v>
+      </c>
+      <c r="I87" s="2">
+        <v>6</v>
+      </c>
+      <c r="J87" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>148</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>43982</v>
+      </c>
+      <c r="B88" s="2">
+        <v>38</v>
+      </c>
+      <c r="C88" s="2">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E88" s="2">
+        <v>99</v>
+      </c>
+      <c r="F88" s="2">
+        <v>22</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="H88" s="2">
+        <v>12</v>
+      </c>
+      <c r="I88" s="2">
+        <v>8</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>43983</v>
+      </c>
+      <c r="B89" s="2">
+        <v>37</v>
+      </c>
+      <c r="C89" s="2">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E89" s="2">
+        <v>96</v>
+      </c>
+      <c r="F89" s="2">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="H89" s="2">
+        <v>6</v>
+      </c>
+      <c r="I89" s="2">
+        <v>8</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>139</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>43984</v>
+      </c>
+      <c r="B90" s="2">
+        <v>35</v>
+      </c>
+      <c r="C90" s="2">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E90" s="2">
+        <v>93</v>
+      </c>
+      <c r="F90" s="2">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="H90" s="2">
+        <v>8</v>
+      </c>
+      <c r="I90" s="2">
+        <v>7</v>
+      </c>
+      <c r="J90" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>136</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="10"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>43985</v>
+      </c>
+      <c r="B91" s="2">
+        <v>32</v>
+      </c>
+      <c r="C91" s="2">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E91" s="2">
+        <v>89</v>
+      </c>
+      <c r="F91" s="2">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H91" s="2">
+        <v>7</v>
+      </c>
+      <c r="I91" s="2">
+        <v>5</v>
+      </c>
+      <c r="J91" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>43986</v>
+      </c>
+      <c r="B92" s="2">
+        <v>30</v>
+      </c>
+      <c r="C92" s="2">
+        <v>13</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E92" s="2">
+        <v>89</v>
+      </c>
+      <c r="F92" s="2">
+        <v>7</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="H92" s="2">
+        <v>9</v>
+      </c>
+      <c r="I92" s="2">
+        <v>5</v>
+      </c>
+      <c r="J92" s="2">
+        <f t="shared" ref="J92:J98" si="11">H92-I92</f>
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>43987</v>
+      </c>
+      <c r="B93" s="2">
+        <v>26</v>
+      </c>
+      <c r="C93" s="2">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E93" s="2">
+        <v>89</v>
+      </c>
+      <c r="F93" s="2">
+        <v>7</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="H93" s="2">
+        <v>10</v>
+      </c>
+      <c r="I93" s="2">
+        <v>5</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="10"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>43988</v>
+      </c>
+      <c r="B94" s="2">
+        <v>22</v>
+      </c>
+      <c r="C94" s="2">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E94" s="2">
+        <v>84</v>
+      </c>
+      <c r="F94" s="2">
+        <v>12</v>
+      </c>
+      <c r="G94" s="2">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="H94" s="2">
+        <v>10</v>
+      </c>
+      <c r="I94" s="2">
+        <v>3</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="10"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>43989</v>
+      </c>
+      <c r="B95" s="2">
+        <v>20</v>
+      </c>
+      <c r="C95" s="2">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E95" s="2">
+        <v>85</v>
+      </c>
+      <c r="F95" s="2">
+        <v>7</v>
+      </c>
+      <c r="G95" s="2">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="H95" s="2">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2">
+        <v>2</v>
+      </c>
+      <c r="J95" s="2">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>43990</v>
+      </c>
+      <c r="B96" s="2">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="E96" s="2">
+        <v>86</v>
+      </c>
+      <c r="F96" s="2">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="H96" s="2">
+        <v>10</v>
+      </c>
+      <c r="I96" s="2">
+        <v>2</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>116</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>43991</v>
+      </c>
+      <c r="B97" s="2">
+        <v>20</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E97" s="2">
+        <v>88</v>
+      </c>
+      <c r="F97" s="2">
+        <v>8</v>
+      </c>
+      <c r="G97" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H97" s="2">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="10"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>43992</v>
+      </c>
+      <c r="B98" s="2">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E98" s="2">
+        <v>92</v>
+      </c>
+      <c r="F98" s="2">
+        <v>8</v>
+      </c>
+      <c r="G98" s="2">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="H98" s="2">
+        <v>11</v>
+      </c>
+      <c r="I98" s="2">
+        <v>2</v>
+      </c>
+      <c r="J98" s="2">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="10"/>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
